--- a/01-Resignation-Predictor/insight_data/insight_data.xlsx
+++ b/01-Resignation-Predictor/insight_data/insight_data.xlsx
@@ -496,7 +496,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -572,7 +572,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -648,7 +648,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">

--- a/01-Resignation-Predictor/insight_data/insight_data.xlsx
+++ b/01-Resignation-Predictor/insight_data/insight_data.xlsx
@@ -441,27 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employee Annual Salary$</t>
+          <t>Employee_Annual_Salary</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Medical contribution$</t>
+          <t>Monthly_Medical_contribution</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Dental Contribution$</t>
+          <t>Monthly_Dental_Contribution</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Vision Contribution$</t>
+          <t>Monthly_Vision_Contribution</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Bonus $</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Employee HR rate</t>
+          <t>Employee_HR_rate</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t># of Hours per week</t>
+          <t>Hours_per_week</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
